--- a/code/Data energy.xlsx
+++ b/code/Data energy.xlsx
@@ -457,2816 +457,2816 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>942.9956628004783</v>
+        <v>980.9504804717832</v>
       </c>
       <c r="B2" t="n">
-        <v>1023.950936407303</v>
+        <v>967.625315011244</v>
       </c>
       <c r="C2" t="n">
-        <v>851.9184298489583</v>
+        <v>1048.028977386192</v>
       </c>
       <c r="D2" t="n">
-        <v>960.8488808347097</v>
+        <v>1083.356188278032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>888.3028600289053</v>
+        <v>936.6163299191712</v>
       </c>
       <c r="B3" t="n">
-        <v>995.162058365789</v>
+        <v>940.185510904567</v>
       </c>
       <c r="C3" t="n">
-        <v>832.9713696389147</v>
+        <v>1025.275705971971</v>
       </c>
       <c r="D3" t="n">
-        <v>935.4442975998162</v>
+        <v>1071.2525598903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>835.4418912395504</v>
+        <v>892.2129884620409</v>
       </c>
       <c r="B4" t="n">
-        <v>965.1456513577856</v>
+        <v>911.9023039350194</v>
       </c>
       <c r="C4" t="n">
-        <v>814.4571210898998</v>
+        <v>1000.119241629529</v>
       </c>
       <c r="D4" t="n">
-        <v>915.2475141859372</v>
+        <v>1059.378874582583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>793.0199943082686</v>
+        <v>831.134974818965</v>
       </c>
       <c r="B5" t="n">
-        <v>938.3036419294423</v>
+        <v>884.4644952868621</v>
       </c>
       <c r="C5" t="n">
-        <v>791.5468818187409</v>
+        <v>979.7021607499278</v>
       </c>
       <c r="D5" t="n">
-        <v>895.1247285906526</v>
+        <v>1047.505208685968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>749.2129642329758</v>
+        <v>763.0312789943232</v>
       </c>
       <c r="B6" t="n">
-        <v>910.1655125386173</v>
+        <v>855.2303033842196</v>
       </c>
       <c r="C6" t="n">
-        <v>774.6284312880198</v>
+        <v>959.4145104328637</v>
       </c>
       <c r="D6" t="n">
-        <v>882.0702206716845</v>
+        <v>1019.135340908586</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>702.0319682399078</v>
+        <v>717.5147780713698</v>
       </c>
       <c r="B7" t="n">
-        <v>880.5498768137946</v>
+        <v>830.7919349777601</v>
       </c>
       <c r="C7" t="n">
-        <v>756.1141827390044</v>
+        <v>936.5532771713054</v>
       </c>
       <c r="D7" t="n">
-        <v>861.4290758554104</v>
+        <v>1007.261682555644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>648.7192681896819</v>
+        <v>671.6689443068776</v>
       </c>
       <c r="B8" t="n">
-        <v>852.7090856702338</v>
+        <v>804.348493124485</v>
       </c>
       <c r="C8" t="n">
-        <v>738.071342002985</v>
+        <v>916.2656268542418</v>
       </c>
       <c r="D8" t="n">
-        <v>844.9866644326709</v>
+        <v>978.875429580082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>578.5188390959137</v>
+        <v>621.2343936074399</v>
       </c>
       <c r="B9" t="n">
-        <v>824.3385803261521</v>
+        <v>778.3904637910521</v>
       </c>
       <c r="C9" t="n">
-        <v>729.6125414894442</v>
+        <v>893.4043935926843</v>
       </c>
       <c r="D9" t="n">
-        <v>824.7873299264041</v>
+        <v>959.8855917474848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>518.7621720549696</v>
+        <v>590.9361297148531</v>
       </c>
       <c r="B10" t="n">
-        <v>798.6849768157525</v>
+        <v>753.8470699736706</v>
       </c>
       <c r="C10" t="n">
-        <v>714.2449398358234</v>
+        <v>873.1167432756205</v>
       </c>
       <c r="D10" t="n">
-        <v>809.0379739738023</v>
+        <v>937.3959344040178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>479.0343087871014</v>
+        <v>543.1936736491851</v>
       </c>
       <c r="B11" t="n">
-        <v>770.3238241000387</v>
+        <v>728.5556588091965</v>
       </c>
       <c r="C11" t="n">
-        <v>700.7269165641485</v>
+        <v>850.0316063621834</v>
       </c>
       <c r="D11" t="n">
-        <v>793.2886179357337</v>
+        <v>910.58668105257</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>449.376107856536</v>
+        <v>499.9370121091616</v>
       </c>
       <c r="B12" t="n">
-        <v>743.4417857163393</v>
+        <v>705.6555142390552</v>
       </c>
       <c r="C12" t="n">
-        <v>684.5402480781167</v>
+        <v>837.6303973837884</v>
       </c>
       <c r="D12" t="n">
-        <v>777.5392582858269</v>
+        <v>888.5925435205393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>403.0923674308202</v>
+        <v>436.5391147438988</v>
       </c>
       <c r="B13" t="n">
-        <v>718.7653377391382</v>
+        <v>681.4795899530305</v>
       </c>
       <c r="C13" t="n">
-        <v>666.0427337119844</v>
+        <v>828.2285915192177</v>
       </c>
       <c r="D13" t="n">
-        <v>761.1038867744619</v>
+        <v>866.1386804831043</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>365.8735735843897</v>
+        <v>390.0812463364193</v>
       </c>
       <c r="B14" t="n">
-        <v>691.7274538864582</v>
+        <v>656.4725901398809</v>
       </c>
       <c r="C14" t="n">
-        <v>651.1943631552413</v>
+        <v>818.8267856546473</v>
       </c>
       <c r="D14" t="n">
-        <v>745.6756787760723</v>
+        <v>839.8634545660298</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>322.189083176041</v>
+        <v>375.8213628760103</v>
       </c>
       <c r="B15" t="n">
-        <v>668.4846128910472</v>
+        <v>633.1147953410706</v>
       </c>
       <c r="C15" t="n">
-        <v>633.9775387791315</v>
+        <v>809.4249797900771</v>
       </c>
       <c r="D15" t="n">
-        <v>723.9909508194253</v>
+        <v>817.4095927315793</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>294.2876570338943</v>
+        <v>357.3910204989353</v>
       </c>
       <c r="B16" t="n">
-        <v>644.5405158381629</v>
+        <v>608.6372803204711</v>
       </c>
       <c r="C16" t="n">
-        <v>625.5239365184284</v>
+        <v>790.2558752771131</v>
       </c>
       <c r="D16" t="n">
-        <v>706.6153770657392</v>
+        <v>794.9557307349814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>261.7457085891263</v>
+        <v>300.5376894376745</v>
       </c>
       <c r="B17" t="n">
-        <v>619.2873515179795</v>
+        <v>584.3320411275868</v>
       </c>
       <c r="C17" t="n">
-        <v>615.2291998391828</v>
+        <v>777.7517053596235</v>
       </c>
       <c r="D17" t="n">
-        <v>689.2398109282454</v>
+        <v>774.0607727613396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>230.9731772980251</v>
+        <v>256.098056829382</v>
       </c>
       <c r="B18" t="n">
-        <v>596.0475060226117</v>
+        <v>563.1285083575965</v>
       </c>
       <c r="C18" t="n">
-        <v>606.7342986622708</v>
+        <v>764.2265365805741</v>
       </c>
       <c r="D18" t="n">
-        <v>676.5195908495309</v>
+        <v>751.6290959708439</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>197.3041369001907</v>
+        <v>216.9004848781411</v>
       </c>
       <c r="B19" t="n">
-        <v>573.3105170726348</v>
+        <v>542.6627009200682</v>
       </c>
       <c r="C19" t="n">
-        <v>592.6382307974906</v>
+        <v>741.1484138434482</v>
       </c>
       <c r="D19" t="n">
-        <v>663.4875008257416</v>
+        <v>721.2186045709498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>154.5806064245006</v>
+        <v>203.3656810895535</v>
       </c>
       <c r="B20" t="n">
-        <v>549.6943912398915</v>
+        <v>520.4136700958441</v>
       </c>
       <c r="C20" t="n">
-        <v>581.929403492089</v>
+        <v>721.4069733170144</v>
       </c>
       <c r="D20" t="n">
-        <v>646.111933196163</v>
+        <v>695.5530413428214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>136.580570701119</v>
+        <v>149.0874541608216</v>
       </c>
       <c r="B21" t="n">
-        <v>526.5679921912703</v>
+        <v>497.9855179682215</v>
       </c>
       <c r="C21" t="n">
-        <v>568.7461259759712</v>
+        <v>708.3161533018878</v>
       </c>
       <c r="D21" t="n">
-        <v>633.0798460810445</v>
+        <v>673.1323798920731</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>136.580495701119</v>
+        <v>149.0873691608217</v>
       </c>
       <c r="B22" t="n">
-        <v>505.3442075557593</v>
+        <v>477.1955560871544</v>
       </c>
       <c r="C22" t="n">
-        <v>557.790946147816</v>
+        <v>692.6861461767285</v>
       </c>
       <c r="D22" t="n">
-        <v>615.704270598538</v>
+        <v>651.2199484215241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>136.580420701119</v>
+        <v>149.0872841608216</v>
       </c>
       <c r="B23" t="n">
-        <v>483.003479297195</v>
+        <v>457.0893406065005</v>
       </c>
       <c r="C23" t="n">
-        <v>544.4899938571899</v>
+        <v>681.1694133656481</v>
       </c>
       <c r="D23" t="n">
-        <v>599.5765999528678</v>
+        <v>629.3075121521186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>136.5803457011189</v>
+        <v>149.0871991608216</v>
       </c>
       <c r="B24" t="n">
-        <v>460.8064112883609</v>
+        <v>434.9505701006017</v>
       </c>
       <c r="C24" t="n">
-        <v>530.7194939467331</v>
+        <v>669.6526805545681</v>
       </c>
       <c r="D24" t="n">
-        <v>586.5445179460403</v>
+        <v>607.6497928952944</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>136.580270701119</v>
+        <v>149.0871141608216</v>
       </c>
       <c r="B25" t="n">
-        <v>440.438954695004</v>
+        <v>416.6913986860769</v>
       </c>
       <c r="C25" t="n">
-        <v>519.2004372178721</v>
+        <v>654.4164809732276</v>
       </c>
       <c r="D25" t="n">
-        <v>569.2659801888968</v>
+        <v>586.6656932423807</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>136.5801957011189</v>
+        <v>149.0870291608216</v>
       </c>
       <c r="B26" t="n">
-        <v>417.7307319989168</v>
+        <v>396.4450827816835</v>
       </c>
       <c r="C26" t="n">
-        <v>505.5302890396257</v>
+        <v>634.2623234215264</v>
       </c>
       <c r="D26" t="n">
-        <v>557.0035751025231</v>
+        <v>567.9633096922576</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>136.5801207011189</v>
+        <v>149.0869441608216</v>
       </c>
       <c r="B27" t="n">
-        <v>398.7683172774717</v>
+        <v>375.1411469524303</v>
       </c>
       <c r="C27" t="n">
-        <v>495.8372530042544</v>
+        <v>622.0741832377014</v>
       </c>
       <c r="D27" t="n">
-        <v>545.9084366942578</v>
+        <v>550.9346952141591</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>136.5800457011189</v>
+        <v>149.0868591608215</v>
       </c>
       <c r="B28" t="n">
-        <v>378.757050598767</v>
+        <v>357.7865409498669</v>
       </c>
       <c r="C28" t="n">
-        <v>483.0605008413333</v>
+        <v>609.8860430538771</v>
       </c>
       <c r="D28" t="n">
-        <v>534.8428464183397</v>
+        <v>534.2770125379606</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>136.5799707011189</v>
+        <v>149.0867741608215</v>
       </c>
       <c r="B29" t="n">
-        <v>358.5718364291185</v>
+        <v>339.8823167857178</v>
       </c>
       <c r="C29" t="n">
-        <v>472.8317675322854</v>
+        <v>597.697902870052</v>
       </c>
       <c r="D29" t="n">
-        <v>520.349209369617</v>
+        <v>515.062391108331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>136.5798957011189</v>
+        <v>149.0866891608215</v>
       </c>
       <c r="B30" t="n">
-        <v>338.0296850687635</v>
+        <v>319.3281086816871</v>
       </c>
       <c r="C30" t="n">
-        <v>459.2952478331298</v>
+        <v>585.5097626862271</v>
       </c>
       <c r="D30" t="n">
-        <v>509.2836238695522</v>
+        <v>499.5019407707684</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>136.5798207011188</v>
+        <v>149.0866041608215</v>
       </c>
       <c r="B31" t="n">
-        <v>317.3709639701465</v>
+        <v>302.1205523645959</v>
       </c>
       <c r="C31" t="n">
-        <v>445.7587281339746</v>
+        <v>573.3216225024028</v>
       </c>
       <c r="D31" t="n">
-        <v>498.3073963355776</v>
+        <v>484.7961929980847</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>136.5797457011189</v>
+        <v>149.0865191608215</v>
       </c>
       <c r="B32" t="n">
-        <v>297.809342389983</v>
+        <v>283.4863174908284</v>
       </c>
       <c r="C32" t="n">
-        <v>432.2222084348195</v>
+        <v>561.1334823185778</v>
       </c>
       <c r="D32" t="n">
-        <v>487.6267591755295</v>
+        <v>467.4005903578226</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>136.5796707011189</v>
+        <v>149.0864341608215</v>
       </c>
       <c r="B33" t="n">
-        <v>281.844500243162</v>
+        <v>269.2351013652196</v>
       </c>
       <c r="C33" t="n">
-        <v>421.9934751257711</v>
+        <v>548.9453421347528</v>
       </c>
       <c r="D33" t="n">
-        <v>470.9827464713313</v>
+        <v>453.0393283451717</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>136.5795957011188</v>
+        <v>149.0863491608214</v>
       </c>
       <c r="B34" t="n">
-        <v>263.2673574180562</v>
+        <v>256.15729695401</v>
       </c>
       <c r="C34" t="n">
-        <v>410.6183486395965</v>
+        <v>536.7572019509286</v>
       </c>
       <c r="D34" t="n">
-        <v>457.1014412460258</v>
+        <v>439.7221243076734</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>136.5795207011189</v>
+        <v>149.0862641608214</v>
       </c>
       <c r="B35" t="n">
-        <v>247.1650335021423</v>
+        <v>242.5399664287144</v>
       </c>
       <c r="C35" t="n">
-        <v>400.9925581952798</v>
+        <v>524.5690617671039</v>
       </c>
       <c r="D35" t="n">
-        <v>447.2698601108987</v>
+        <v>427.1923475246507</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>136.5794457011188</v>
+        <v>149.0861791608214</v>
       </c>
       <c r="B36" t="n">
-        <v>230.3566087846762</v>
+        <v>226.8805148703834</v>
       </c>
       <c r="C36" t="n">
-        <v>392.4021495104509</v>
+        <v>512.5631270356087</v>
       </c>
       <c r="D36" t="n">
-        <v>437.4607840193137</v>
+        <v>414.9555121355634</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>136.5793707011188</v>
+        <v>149.0860941608215</v>
       </c>
       <c r="B37" t="n">
-        <v>214.786928572711</v>
+        <v>211.1150208736703</v>
       </c>
       <c r="C37" t="n">
-        <v>384.2979729222089</v>
+        <v>500.9688627025967</v>
       </c>
       <c r="D37" t="n">
-        <v>423.0436212908027</v>
+        <v>403.1429070607529</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>136.5792957011189</v>
+        <v>149.0860091608214</v>
       </c>
       <c r="B38" t="n">
-        <v>199.7826386547854</v>
+        <v>194.7018188538347</v>
       </c>
       <c r="C38" t="n">
-        <v>373.4609089718071</v>
+        <v>489.573158726252</v>
       </c>
       <c r="D38" t="n">
-        <v>408.7530730105104</v>
+        <v>389.4728782896119</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>136.5792207011188</v>
+        <v>149.0859241608214</v>
       </c>
       <c r="B39" t="n">
-        <v>184.8322980711702</v>
+        <v>183.3737359210719</v>
       </c>
       <c r="C39" t="n">
-        <v>363.3214817757301</v>
+        <v>478.8034363643948</v>
       </c>
       <c r="D39" t="n">
-        <v>392.7444218713381</v>
+        <v>376.9767795609811</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>136.5791457011188</v>
+        <v>149.0858391608214</v>
       </c>
       <c r="B40" t="n">
-        <v>174.4572523257243</v>
+        <v>170.6149314321375</v>
       </c>
       <c r="C40" t="n">
-        <v>356.7666166639393</v>
+        <v>467.0307018204223</v>
       </c>
       <c r="D40" t="n">
-        <v>383.5085288402856</v>
+        <v>365.2018621371645</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>136.5790707011188</v>
+        <v>149.0857541608214</v>
       </c>
       <c r="B41" t="n">
-        <v>162.095962191616</v>
+        <v>156.3578708380379</v>
       </c>
       <c r="C41" t="n">
-        <v>345.6495411899564</v>
+        <v>452.2300166027359</v>
       </c>
       <c r="D41" t="n">
-        <v>374.2726394202511</v>
+        <v>355.8260789411339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>136.5789957011187</v>
+        <v>149.0856691608214</v>
       </c>
       <c r="B42" t="n">
-        <v>151.9794682338912</v>
+        <v>145.5240829487944</v>
       </c>
       <c r="C42" t="n">
-        <v>339.613949183428</v>
+        <v>441.1888756091218</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3602361736126</v>
+        <v>347.2745773088481</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>136.5789207011188</v>
+        <v>149.0855841608214</v>
       </c>
       <c r="B43" t="n">
-        <v>137.2366910637658</v>
+        <v>132.6987771273812</v>
       </c>
       <c r="C43" t="n">
-        <v>333.6455762128761</v>
+        <v>426.4194503049155</v>
       </c>
       <c r="D43" t="n">
-        <v>350.662242695054</v>
+        <v>338.4711931002068</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>136.5788457011187</v>
+        <v>149.0854991608213</v>
       </c>
       <c r="B44" t="n">
-        <v>123.8084488680011</v>
+        <v>120.8744506996077</v>
       </c>
       <c r="C44" t="n">
-        <v>324.8029979800961</v>
+        <v>417.6663438417807</v>
       </c>
       <c r="D44" t="n">
-        <v>342.6299230290745</v>
+        <v>331.7903355668672</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>136.5787707011187</v>
+        <v>149.0854141608213</v>
       </c>
       <c r="B45" t="n">
-        <v>116.1908669147574</v>
+        <v>108.1392819047442</v>
       </c>
       <c r="C45" t="n">
-        <v>316.3334672084675</v>
+        <v>409.5567554305911</v>
       </c>
       <c r="D45" t="n">
-        <v>328.5580008346542</v>
+        <v>323.236036767056</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>136.5786957011188</v>
+        <v>149.0853291608213</v>
       </c>
       <c r="B46" t="n">
-        <v>106.1179198522984</v>
+        <v>97.94025610821043</v>
       </c>
       <c r="C46" t="n">
-        <v>311.0049999975639</v>
+        <v>402.377125959109</v>
       </c>
       <c r="D46" t="n">
-        <v>319.92379898951</v>
+        <v>316.2165965632744</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>136.5786207011187</v>
+        <v>149.0852441608213</v>
       </c>
       <c r="B47" t="n">
-        <v>95.66911261874587</v>
+        <v>89.89364016817891</v>
       </c>
       <c r="C47" t="n">
-        <v>301.9417007327905</v>
+        <v>395.3769064038597</v>
       </c>
       <c r="D47" t="n">
-        <v>310.4969498622539</v>
+        <v>307.1048967471999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>136.5785457011187</v>
+        <v>149.0851591608213</v>
       </c>
       <c r="B48" t="n">
-        <v>86.06398205228602</v>
+        <v>79.61944498487931</v>
       </c>
       <c r="C48" t="n">
-        <v>290.9035762741902</v>
+        <v>388.6027877476328</v>
       </c>
       <c r="D48" t="n">
-        <v>299.6020868574856</v>
+        <v>300.7135907938941</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>136.5784707011188</v>
+        <v>149.0850741608213</v>
       </c>
       <c r="B49" t="n">
-        <v>76.79104535843</v>
+        <v>70.03114326105201</v>
       </c>
       <c r="C49" t="n">
-        <v>278.945384292384</v>
+        <v>382.0215684792915</v>
       </c>
       <c r="D49" t="n">
-        <v>292.3165160984728</v>
+        <v>294.5029440948032</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>136.5783957011187</v>
+        <v>149.0849891608212</v>
       </c>
       <c r="B50" t="n">
-        <v>69.3868352934429</v>
+        <v>62.08223273232691</v>
       </c>
       <c r="C50" t="n">
-        <v>271.189851805102</v>
+        <v>375.7236611283122</v>
       </c>
       <c r="D50" t="n">
-        <v>285.3456390924212</v>
+        <v>288.6731674200246</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>136.5783207011187</v>
+        <v>149.0849041608213</v>
       </c>
       <c r="B51" t="n">
-        <v>62.88519644244695</v>
+        <v>54.40307269503056</v>
       </c>
       <c r="C51" t="n">
-        <v>263.4560109338993</v>
+        <v>369.7866073197843</v>
       </c>
       <c r="D51" t="n">
-        <v>278.4771554861451</v>
+        <v>283.1196167863451</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>136.5782457011186</v>
+        <v>149.0848191608212</v>
       </c>
       <c r="B52" t="n">
-        <v>56.11117666308258</v>
+        <v>47.74787424177879</v>
       </c>
       <c r="C52" t="n">
-        <v>255.7221700626967</v>
+        <v>364.2884647127231</v>
       </c>
       <c r="D52" t="n">
-        <v>271.7778851521385</v>
+        <v>276.7702658805072</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>136.5781707011186</v>
+        <v>149.0847341608213</v>
       </c>
       <c r="B53" t="n">
-        <v>48.40822923938141</v>
+        <v>41.77793261974328</v>
       </c>
       <c r="C53" t="n">
-        <v>248.0992649366787</v>
+        <v>359.1432516609513</v>
       </c>
       <c r="D53" t="n">
-        <v>265.5920787604223</v>
+        <v>271.486569933159</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>136.5780957011187</v>
+        <v>149.0846491608213</v>
       </c>
       <c r="B54" t="n">
-        <v>40.83592316954185</v>
+        <v>35.76666848269289</v>
       </c>
       <c r="C54" t="n">
-        <v>240.5244983354362</v>
+        <v>354.1086684976462</v>
       </c>
       <c r="D54" t="n">
-        <v>259.8259061696195</v>
+        <v>265.3532645743082</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>136.5780207011186</v>
+        <v>149.0845641608212</v>
       </c>
       <c r="B55" t="n">
-        <v>35.01126657618425</v>
+        <v>30.43148540149108</v>
       </c>
       <c r="C55" t="n">
-        <v>231.1245592526085</v>
+        <v>349.244750688587</v>
       </c>
       <c r="D55" t="n">
-        <v>254.5231375609529</v>
+        <v>259.9231796967204</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>136.5779457011186</v>
+        <v>149.0844791608212</v>
       </c>
       <c r="B56" t="n">
-        <v>30.26283210660655</v>
+        <v>24.87588911856001</v>
       </c>
       <c r="C56" t="n">
-        <v>225.3818868554423</v>
+        <v>341.44604330718</v>
       </c>
       <c r="D56" t="n">
-        <v>240.2397448519265</v>
+        <v>255.1762510544862</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>136.5778707011187</v>
+        <v>149.0843941608212</v>
       </c>
       <c r="B57" t="n">
-        <v>25.57637227050099</v>
+        <v>20.03225892675541</v>
       </c>
       <c r="C57" t="n">
-        <v>220.0583929569326</v>
+        <v>333.876652390305</v>
       </c>
       <c r="D57" t="n">
-        <v>226.7520588905574</v>
+        <v>250.6133262295467</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>136.5777957011186</v>
+        <v>149.0843091608212</v>
       </c>
       <c r="B58" t="n">
-        <v>22.26821489683229</v>
+        <v>15.98465221672643</v>
       </c>
       <c r="C58" t="n">
-        <v>214.8831910476326</v>
+        <v>325.185391160986</v>
       </c>
       <c r="D58" t="n">
-        <v>213.6494091404924</v>
+        <v>245.1844037305152</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>136.5777207011186</v>
+        <v>149.0842241608212</v>
       </c>
       <c r="B59" t="n">
-        <v>18.32238086151671</v>
+        <v>13.07520607468161</v>
       </c>
       <c r="C59" t="n">
-        <v>209.7805696703192</v>
+        <v>321.1440984614129</v>
       </c>
       <c r="D59" t="n">
-        <v>201.1147316856257</v>
+        <v>240.7793652907048</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>136.5776457011185</v>
+        <v>149.0841391608211</v>
       </c>
       <c r="B60" t="n">
-        <v>15.69726486164739</v>
+        <v>11.32741747912664</v>
       </c>
       <c r="C60" t="n">
-        <v>201.6939059352295</v>
+        <v>317.2373781183949</v>
       </c>
       <c r="D60" t="n">
-        <v>189.2180230200438</v>
+        <v>236.6272504733635</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>136.5775707011186</v>
+        <v>149.0840541608211</v>
       </c>
       <c r="B61" t="n">
-        <v>13.48935987620455</v>
+        <v>4.999939999999992</v>
       </c>
       <c r="C61" t="n">
-        <v>196.9055126131753</v>
+        <v>313.3978026842675</v>
       </c>
       <c r="D61" t="n">
-        <v>185.3900854154137</v>
+        <v>231.3231580740853</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>136.5774957011186</v>
+        <v>149.0839691608211</v>
       </c>
       <c r="B62" t="n">
-        <v>10.97735458453028</v>
+        <v>4.999938999999991</v>
       </c>
       <c r="C62" t="n">
-        <v>192.8695998177679</v>
+        <v>309.5863498831764</v>
       </c>
       <c r="D62" t="n">
-        <v>182.0370251329449</v>
+        <v>227.9248926458865</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>136.5774207011185</v>
+        <v>149.0838841608211</v>
       </c>
       <c r="B63" t="n">
         <v>4.999937999999991</v>
       </c>
       <c r="C63" t="n">
-        <v>189.1483819140296</v>
+        <v>305.9680296344106</v>
       </c>
       <c r="D63" t="n">
-        <v>178.8165400173548</v>
+        <v>223.1104627325208</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>136.5773457011185</v>
+        <v>149.0837991608211</v>
       </c>
       <c r="B64" t="n">
         <v>4.999936999999991</v>
       </c>
       <c r="C64" t="n">
-        <v>185.6922594237024</v>
+        <v>302.6408603130828</v>
       </c>
       <c r="D64" t="n">
-        <v>175.9576779381894</v>
+        <v>219.0898587617058</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>136.5772707011186</v>
+        <v>149.0837141608211</v>
       </c>
       <c r="B65" t="n">
         <v>4.999935999999991</v>
       </c>
       <c r="C65" t="n">
-        <v>182.4665124243168</v>
+        <v>299.3908975540137</v>
       </c>
       <c r="D65" t="n">
-        <v>173.4900242677201</v>
+        <v>215.6260619993261</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>136.5771957011185</v>
+        <v>149.0836291608211</v>
       </c>
       <c r="B66" t="n">
         <v>4.999934999999991</v>
       </c>
       <c r="C66" t="n">
-        <v>177.8095970488701</v>
+        <v>296.1409347949447</v>
       </c>
       <c r="D66" t="n">
-        <v>171.4062547934962</v>
+        <v>211.7379298216207</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>136.5771207011185</v>
+        <v>149.083544160821</v>
       </c>
       <c r="B67" t="n">
         <v>4.999933999999991</v>
       </c>
       <c r="C67" t="n">
-        <v>175.1288404597148</v>
+        <v>293.0093283748102</v>
       </c>
       <c r="D67" t="n">
-        <v>169.6163947693558</v>
+        <v>207.8498025279746</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>136.5770457011185</v>
+        <v>149.083459160821</v>
       </c>
       <c r="B68" t="n">
         <v>4.999932999999991</v>
       </c>
       <c r="C68" t="n">
-        <v>172.9099614517826</v>
+        <v>290.003468892359</v>
       </c>
       <c r="D68" t="n">
-        <v>167.8346740923774</v>
+        <v>204.205627110956</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>136.5769707011185</v>
+        <v>149.0833741608211</v>
       </c>
       <c r="B69" t="n">
         <v>4.99993199999999</v>
       </c>
       <c r="C69" t="n">
-        <v>171.0806472596891</v>
+        <v>287.1036828906858</v>
       </c>
       <c r="D69" t="n">
-        <v>166.0957994951481</v>
+        <v>201.0794188666437</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>136.5768957011185</v>
+        <v>149.0832891608211</v>
       </c>
       <c r="B70" t="n">
         <v>4.99993099999999</v>
       </c>
       <c r="C70" t="n">
-        <v>167.8821080046042</v>
+        <v>284.394124594624</v>
       </c>
       <c r="D70" t="n">
-        <v>164.4532345353009</v>
+        <v>198.2305062768443</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>136.5768207011185</v>
+        <v>149.083204160821</v>
       </c>
       <c r="B71" t="n">
         <v>4.99992999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>165.2414393475261</v>
+        <v>281.803260740299</v>
       </c>
       <c r="D71" t="n">
-        <v>162.8953618420067</v>
+        <v>195.6108015067986</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>136.5767457011185</v>
+        <v>149.083119160821</v>
       </c>
       <c r="B72" t="n">
         <v>4.99992899999999</v>
       </c>
       <c r="C72" t="n">
-        <v>163.0239940164879</v>
+        <v>279.2207107227919</v>
       </c>
       <c r="D72" t="n">
-        <v>159.5992801536665</v>
+        <v>193.0946331226032</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>136.5766707011185</v>
+        <v>149.083034160821</v>
       </c>
       <c r="B73" t="n">
         <v>4.99992799999999</v>
       </c>
       <c r="C73" t="n">
-        <v>161.0516573535926</v>
+        <v>276.6381607052849</v>
       </c>
       <c r="D73" t="n">
-        <v>155.1228192454367</v>
+        <v>190.6044903392551</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>136.5765957011184</v>
+        <v>149.082949160821</v>
       </c>
       <c r="B74" t="n">
         <v>4.99992699999999</v>
       </c>
       <c r="C74" t="n">
-        <v>159.1971013417256</v>
+        <v>274.0556106877777</v>
       </c>
       <c r="D74" t="n">
-        <v>150.9546106743714</v>
+        <v>188.3022418253693</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>136.5765207011185</v>
+        <v>149.082864160821</v>
       </c>
       <c r="B75" t="n">
         <v>4.99992599999999</v>
       </c>
       <c r="C75" t="n">
-        <v>157.3603195325456</v>
+        <v>271.4730606702706</v>
       </c>
       <c r="D75" t="n">
-        <v>145.0741133845671</v>
+        <v>185.926835537508</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>136.5764457011184</v>
+        <v>149.082779160821</v>
       </c>
       <c r="B76" t="n">
         <v>4.99992499999999</v>
       </c>
       <c r="C76" t="n">
-        <v>155.5235377233657</v>
+        <v>268.9612207490962</v>
       </c>
       <c r="D76" t="n">
-        <v>140.7945046855496</v>
+        <v>183.6093918256343</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>136.5763707011184</v>
+        <v>149.0826941608209</v>
       </c>
       <c r="B77" t="n">
         <v>4.999923999999989</v>
       </c>
       <c r="C77" t="n">
-        <v>153.6867559141858</v>
+        <v>266.5520163030007</v>
       </c>
       <c r="D77" t="n">
-        <v>136.6515239695174</v>
+        <v>181.3890699709569</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>136.5762957011185</v>
+        <v>149.0826091608209</v>
       </c>
       <c r="B78" t="n">
         <v>4.999922999999989</v>
       </c>
       <c r="C78" t="n">
-        <v>151.9713521726805</v>
+        <v>264.1734621440078</v>
       </c>
       <c r="D78" t="n">
-        <v>132.576152343297</v>
+        <v>179.2631322129918</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>136.5762207011184</v>
+        <v>149.0825241608209</v>
       </c>
       <c r="B79" t="n">
         <v>4.999921999999989</v>
       </c>
       <c r="C79" t="n">
-        <v>150.3311820195116</v>
+        <v>261.843638395838</v>
       </c>
       <c r="D79" t="n">
-        <v>123.9498460076253</v>
+        <v>176.9456840538428</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>136.5761457011184</v>
+        <v>149.082439160821</v>
       </c>
       <c r="B80" t="n">
         <v>4.999920999999989</v>
       </c>
       <c r="C80" t="n">
-        <v>148.6956585233586</v>
+        <v>259.6178110204598</v>
       </c>
       <c r="D80" t="n">
-        <v>120.1822478231917</v>
+        <v>174.7760430277003</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>136.5760707011184</v>
+        <v>149.0823541608209</v>
       </c>
       <c r="B81" t="n">
         <v>4.999919999999989</v>
       </c>
       <c r="C81" t="n">
-        <v>147.1566550505234</v>
+        <v>257.4068136058413</v>
       </c>
       <c r="D81" t="n">
-        <v>116.7090681627676</v>
+        <v>172.863189404789</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>136.5759957011184</v>
+        <v>149.0822691608209</v>
       </c>
       <c r="B82" t="n">
         <v>4.999918999999989</v>
       </c>
       <c r="C82" t="n">
-        <v>145.749228776674</v>
+        <v>255.2959285464075</v>
       </c>
       <c r="D82" t="n">
-        <v>113.3285405764285</v>
+        <v>171.0075752598891</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>136.5759207011183</v>
+        <v>149.0821841608209</v>
       </c>
       <c r="B83" t="n">
         <v>4.999917999999989</v>
       </c>
       <c r="C83" t="n">
-        <v>144.3418025028246</v>
+        <v>253.2358680762254</v>
       </c>
       <c r="D83" t="n">
-        <v>110.036124980169</v>
+        <v>169.1644087907131</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>136.5758457011183</v>
+        <v>149.0820991608208</v>
       </c>
       <c r="B84" t="n">
         <v>4.999916999999988</v>
       </c>
       <c r="C84" t="n">
-        <v>142.9854879362019</v>
+        <v>251.1758076060432</v>
       </c>
       <c r="D84" t="n">
-        <v>105.2571135796024</v>
+        <v>167.2390289313751</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>136.5757707011183</v>
+        <v>149.0820141608209</v>
       </c>
       <c r="B85" t="n">
         <v>4.999915999999988</v>
       </c>
       <c r="C85" t="n">
-        <v>138.789571073373</v>
+        <v>249.1440756435946</v>
       </c>
       <c r="D85" t="n">
-        <v>102.2072367067357</v>
+        <v>165.3136479214588</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>136.5756957011183</v>
+        <v>149.0819291608209</v>
       </c>
       <c r="B86" t="n">
         <v>4.999914999999988</v>
       </c>
       <c r="C86" t="n">
-        <v>134.6227249606719</v>
+        <v>247.17819791724</v>
       </c>
       <c r="D86" t="n">
-        <v>99.56987241464245</v>
+        <v>163.3591615787244</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>136.5756207011183</v>
+        <v>149.0818441608208</v>
       </c>
       <c r="B87" t="n">
         <v>4.999913999999988</v>
       </c>
       <c r="C87" t="n">
-        <v>130.4623816205518</v>
+        <v>245.3582021886682</v>
       </c>
       <c r="D87" t="n">
-        <v>97.01812819817464</v>
+        <v>161.6096322564715</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>136.5755457011183</v>
+        <v>149.0817591608208</v>
       </c>
       <c r="B88" t="n">
         <v>4.999912999999988</v>
       </c>
       <c r="C88" t="n">
-        <v>126.3020382804318</v>
+        <v>243.610625830204</v>
       </c>
       <c r="D88" t="n">
-        <v>95.71250849198961</v>
+        <v>159.9092936440375</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>136.5754707011183</v>
+        <v>149.0816741608208</v>
       </c>
       <c r="B89" t="n">
         <v>4.999911999999988</v>
       </c>
       <c r="C89" t="n">
-        <v>122.197326926442</v>
+        <v>241.9791411784457</v>
       </c>
       <c r="D89" t="n">
-        <v>93.90498537817597</v>
+        <v>158.3925965114202</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>136.5753957011183</v>
+        <v>149.0815891608208</v>
       </c>
       <c r="B90" t="n">
         <v>4.999910999999988</v>
       </c>
       <c r="C90" t="n">
-        <v>118.1668501308483</v>
+        <v>240.3806376820222</v>
       </c>
       <c r="D90" t="n">
-        <v>91.03007269652701</v>
+        <v>154.9566161595453</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>136.5753207011183</v>
+        <v>149.0815041608208</v>
       </c>
       <c r="B91" t="n">
         <v>4.999909999999987</v>
       </c>
       <c r="C91" t="n">
-        <v>114.1525465975196</v>
+        <v>238.858617685203</v>
       </c>
       <c r="D91" t="n">
-        <v>87.69484813136827</v>
+        <v>146.1983039562222</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>136.5752457011182</v>
+        <v>149.0814191608208</v>
       </c>
       <c r="B92" t="n">
         <v>4.999908999999987</v>
       </c>
       <c r="C92" t="n">
-        <v>110.1382430641909</v>
+        <v>237.3670319704176</v>
       </c>
       <c r="D92" t="n">
-        <v>85.59862045534391</v>
+        <v>142.4902901632417</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>136.5751707011182</v>
+        <v>149.0813341608207</v>
       </c>
       <c r="B93" t="n">
         <v>4.999907999999987</v>
       </c>
       <c r="C93" t="n">
-        <v>106.1239395308622</v>
+        <v>235.947494399855</v>
       </c>
       <c r="D93" t="n">
-        <v>84.59629311317113</v>
+        <v>141.1497019685816</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>136.5750957011183</v>
+        <v>149.0812491608207</v>
       </c>
       <c r="B94" t="n">
         <v>4.999906999999987</v>
       </c>
       <c r="C94" t="n">
-        <v>102.2770289190195</v>
+        <v>234.5279568292926</v>
       </c>
       <c r="D94" t="n">
-        <v>82.71626061480077</v>
+        <v>137.9239826131494</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>136.5750207011182</v>
+        <v>149.0811641608207</v>
       </c>
       <c r="B95" t="n">
         <v>4.999905999999987</v>
       </c>
       <c r="C95" t="n">
-        <v>98.85402947463069</v>
+        <v>233.10841925873</v>
       </c>
       <c r="D95" t="n">
-        <v>81.79962574870113</v>
+        <v>134.9845383091121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>136.5749457011182</v>
+        <v>149.0810791608208</v>
       </c>
       <c r="B96" t="n">
         <v>4.999904999999987</v>
       </c>
       <c r="C96" t="n">
-        <v>95.57731896671156</v>
+        <v>231.7585359127782</v>
       </c>
       <c r="D96" t="n">
-        <v>80.14954097369778</v>
+        <v>132.3936826035135</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>136.5748707011182</v>
+        <v>149.0809941608207</v>
       </c>
       <c r="B97" t="n">
         <v>4.999903999999987</v>
       </c>
       <c r="C97" t="n">
-        <v>92.54103248864409</v>
+        <v>230.4987325295804</v>
       </c>
       <c r="D97" t="n">
-        <v>78.37360741626128</v>
+        <v>129.7475038341641</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>136.5747957011182</v>
+        <v>149.0809091608207</v>
       </c>
       <c r="B98" t="n">
         <v>4.999902999999986</v>
       </c>
       <c r="C98" t="n">
-        <v>89.50668324519626</v>
+        <v>229.2402435040035</v>
       </c>
       <c r="D98" t="n">
-        <v>75.67260980077508</v>
+        <v>127.2552695164738</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>136.5747207011182</v>
+        <v>149.0808241608207</v>
       </c>
       <c r="B99" t="n">
         <v>4.999901999999986</v>
       </c>
       <c r="C99" t="n">
-        <v>86.51755778404348</v>
+        <v>228.0374802730252</v>
       </c>
       <c r="D99" t="n">
-        <v>75.46515784905689</v>
+        <v>124.9034280906476</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>136.5746457011181</v>
+        <v>149.0807391608207</v>
       </c>
       <c r="B100" t="n">
         <v>4.999900999999986</v>
       </c>
       <c r="C100" t="n">
-        <v>83.70716475686717</v>
+        <v>226.8542263987383</v>
       </c>
       <c r="D100" t="n">
-        <v>75.25770394661157</v>
+        <v>124.2207848732861</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>136.5745707011181</v>
+        <v>149.0806541608207</v>
       </c>
       <c r="B101" t="n">
         <v>4.999899999999986</v>
       </c>
       <c r="C101" t="n">
-        <v>80.95812380611757</v>
+        <v>225.6709725244515</v>
       </c>
       <c r="D101" t="n">
-        <v>74.39323114310936</v>
+        <v>122.3090508499313</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>136.5744957011182</v>
+        <v>149.0805691608207</v>
       </c>
       <c r="B102" t="n">
         <v>4.999898999999986</v>
       </c>
       <c r="C102" t="n">
-        <v>78.3851158055258</v>
+        <v>224.4966984529613</v>
       </c>
       <c r="D102" t="n">
-        <v>74.06739466542385</v>
+        <v>120.4907237919602</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>136.5744207011181</v>
+        <v>149.0804841608206</v>
       </c>
       <c r="B103" t="n">
         <v>4.999897999999986</v>
       </c>
       <c r="C103" t="n">
-        <v>75.94946476728799</v>
+        <v>223.3742390215169</v>
       </c>
       <c r="D103" t="n">
-        <v>73.89113193819482</v>
+        <v>119.9880743820214</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>136.5743457011181</v>
+        <v>149.0803991608206</v>
       </c>
       <c r="B104" t="n">
         <v>4.999896999999986</v>
       </c>
       <c r="C104" t="n">
-        <v>73.60317102346595</v>
+        <v>222.311356288186</v>
       </c>
       <c r="D104" t="n">
-        <v>73.08607210520637</v>
+        <v>119.1477878804797</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>136.5742707011182</v>
+        <v>149.0803141608206</v>
       </c>
       <c r="B105" t="n">
         <v>4.999895999999985</v>
       </c>
       <c r="C105" t="n">
-        <v>71.42237272400557</v>
+        <v>221.2753868881634</v>
       </c>
       <c r="D105" t="n">
-        <v>72.22649935945689</v>
+        <v>117.3525085731517</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>136.5741957011181</v>
+        <v>149.0802291608206</v>
       </c>
       <c r="B106" t="n">
         <v>4.999894999999985</v>
       </c>
       <c r="C106" t="n">
-        <v>69.25001386291709</v>
+        <v>220.2394174881408</v>
       </c>
       <c r="D106" t="n">
-        <v>71.44064203128288</v>
+        <v>115.5572357018285</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>136.5741207011181</v>
+        <v>149.0801441608206</v>
       </c>
       <c r="B107" t="n">
         <v>4.999893999999985</v>
       </c>
       <c r="C107" t="n">
-        <v>67.47610559312972</v>
+        <v>219.2376040175544</v>
       </c>
       <c r="D107" t="n">
-        <v>70.66864725483293</v>
+        <v>113.9365771966641</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>136.5740457011181</v>
+        <v>149.0800591608206</v>
       </c>
       <c r="B108" t="n">
         <v>4.999892999999985</v>
       </c>
       <c r="C108" t="n">
-        <v>65.61461968040466</v>
+        <v>218.2416334856653</v>
       </c>
       <c r="D108" t="n">
-        <v>69.91020903151448</v>
+        <v>113.337477201378</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>136.573970701118</v>
+        <v>149.0799741608206</v>
       </c>
       <c r="B109" t="n">
         <v>4.999891999999985</v>
       </c>
       <c r="C109" t="n">
-        <v>63.79064152489568</v>
+        <v>217.2548417488329</v>
       </c>
       <c r="D109" t="n">
-        <v>69.13817892593661</v>
+        <v>111.6141240178493</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>136.5738957011181</v>
+        <v>149.0798891608205</v>
       </c>
       <c r="B110" t="n">
         <v>4.999890999999985</v>
       </c>
       <c r="C110" t="n">
-        <v>63.5451048261507</v>
+        <v>216.3074914528262</v>
       </c>
       <c r="D110" t="n">
-        <v>68.42195992372858</v>
+        <v>109.9810407994151</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>136.573820701118</v>
+        <v>149.0798041608205</v>
       </c>
       <c r="B111" t="n">
         <v>4.999889999999985</v>
       </c>
       <c r="C111" t="n">
-        <v>62.67311568460874</v>
+        <v>215.3946338776888</v>
       </c>
       <c r="D111" t="n">
-        <v>67.71547437083767</v>
+        <v>109.6359777522673</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>136.573745701118</v>
+        <v>149.0797191608206</v>
       </c>
       <c r="B112" t="n">
         <v>4.999888999999984</v>
       </c>
       <c r="C112" t="n">
-        <v>61.03812764470065</v>
+        <v>214.6913473633361</v>
       </c>
       <c r="D112" t="n">
-        <v>67.05439789928782</v>
+        <v>109.3325623298766</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>136.5736707011181</v>
+        <v>149.0796341608205</v>
       </c>
       <c r="B113" t="n">
         <v>4.999887999999984</v>
       </c>
       <c r="C113" t="n">
-        <v>59.47841267746912</v>
+        <v>213.8904185575576</v>
       </c>
       <c r="D113" t="n">
-        <v>66.44739495118345</v>
+        <v>109.0291443601352</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>136.573595701118</v>
+        <v>149.0795491608205</v>
       </c>
       <c r="B114" t="n">
         <v>4.999886999999984</v>
       </c>
       <c r="C114" t="n">
-        <v>58.00646700581821</v>
+        <v>213.1265788729917</v>
       </c>
       <c r="D114" t="n">
-        <v>63.41328365314997</v>
+        <v>108.7257523008346</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>136.573520701118</v>
+        <v>149.0794641608205</v>
       </c>
       <c r="B115" t="n">
         <v>4.999885999999984</v>
       </c>
       <c r="C115" t="n">
-        <v>56.85401547659968</v>
+        <v>212.3638470640607</v>
       </c>
       <c r="D115" t="n">
-        <v>62.98658337013993</v>
+        <v>108.4223412835478</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>136.573445701118</v>
+        <v>149.0793791608205</v>
       </c>
       <c r="B116" t="n">
         <v>4.999884999999984</v>
       </c>
       <c r="C116" t="n">
-        <v>55.90156822561715</v>
+        <v>211.717677982386</v>
       </c>
       <c r="D116" t="n">
-        <v>62.62393532286539</v>
+        <v>108.1189281868139</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>136.573370701118</v>
+        <v>149.0792941608205</v>
       </c>
       <c r="B117" t="n">
         <v>4.999883999999984</v>
       </c>
       <c r="C117" t="n">
-        <v>55.37996130334241</v>
+        <v>211.1343361806576</v>
       </c>
       <c r="D117" t="n">
-        <v>62.36314489545605</v>
+        <v>107.8155115478182</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>136.573295701118</v>
+        <v>149.0792091608205</v>
       </c>
       <c r="B118" t="n">
         <v>4.999882999999984</v>
       </c>
       <c r="C118" t="n">
-        <v>54.85835438106768</v>
+        <v>210.5509943789291</v>
       </c>
       <c r="D118" t="n">
-        <v>62.12064363941955</v>
+        <v>107.5121229455583</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>136.5732207011179</v>
+        <v>149.0791241608204</v>
       </c>
       <c r="B119" t="n">
         <v>4.999881999999984</v>
       </c>
       <c r="C119" t="n">
-        <v>54.3367474587929</v>
+        <v>209.9895938835045</v>
       </c>
       <c r="D119" t="n">
-        <v>61.87814414709087</v>
+        <v>107.2087083381629</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>136.5731457011179</v>
+        <v>149.0790391608205</v>
       </c>
       <c r="B120" t="n">
         <v>4.999880999999983</v>
       </c>
       <c r="C120" t="n">
-        <v>53.81514053651819</v>
+        <v>209.4416070348522</v>
       </c>
       <c r="D120" t="n">
-        <v>61.60819875396049</v>
+        <v>106.9053117906166</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>136.573070701118</v>
+        <v>149.0789541608204</v>
       </c>
       <c r="B121" t="n">
         <v>4.999879999999983</v>
       </c>
       <c r="C121" t="n">
-        <v>53.29353361424343</v>
+        <v>208.8201264224896</v>
       </c>
       <c r="D121" t="n">
-        <v>61.3657011804688</v>
+        <v>106.6018746338731</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>136.5729957011179</v>
+        <v>149.0788691608204</v>
       </c>
       <c r="B122" t="n">
         <v>4.999878999999983</v>
       </c>
       <c r="C122" t="n">
-        <v>52.77192669196867</v>
+        <v>208.3062298871443</v>
       </c>
       <c r="D122" t="n">
-        <v>61.12320726951939</v>
+        <v>105.3256760369817</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>136.5729207011179</v>
+        <v>149.0787841608204</v>
       </c>
       <c r="B123" t="n">
         <v>4.999877999999983</v>
       </c>
       <c r="C123" t="n">
-        <v>52.25031976969394</v>
+        <v>207.7923333517989</v>
       </c>
       <c r="D123" t="n">
-        <v>60.88070786369916</v>
+        <v>105.0222399994328</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>136.5728457011179</v>
+        <v>149.0786991608204</v>
       </c>
       <c r="B124" t="n">
         <v>4.999876999999983</v>
       </c>
       <c r="C124" t="n">
-        <v>51.72871284741918</v>
+        <v>207.2784368164534</v>
       </c>
       <c r="D124" t="n">
-        <v>60.63820686937092</v>
+        <v>104.7188052046309</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>136.5727707011179</v>
+        <v>149.0786141608204</v>
       </c>
       <c r="B125" t="n">
         <v>4.999875999999983</v>
       </c>
       <c r="C125" t="n">
-        <v>51.20710592514443</v>
+        <v>206.6604971776752</v>
       </c>
       <c r="D125" t="n">
-        <v>60.40962984783113</v>
+        <v>104.4153857376609</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>136.5726957011179</v>
+        <v>149.0785291608204</v>
       </c>
       <c r="B126" t="n">
         <v>4.999874999999983</v>
       </c>
       <c r="C126" t="n">
-        <v>50.68549900286968</v>
+        <v>206.1466006423299</v>
       </c>
       <c r="D126" t="n">
-        <v>60.19204096102269</v>
+        <v>104.111968936856</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>136.5726207011178</v>
+        <v>149.0784441608203</v>
       </c>
       <c r="B127" t="n">
         <v>4.999873999999982</v>
       </c>
       <c r="C127" t="n">
-        <v>50.16389208059496</v>
+        <v>205.6327041069845</v>
       </c>
       <c r="D127" t="n">
-        <v>59.97446223219482</v>
+        <v>103.8085508600705</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>136.5725457011179</v>
+        <v>149.0783591608204</v>
       </c>
       <c r="B128" t="n">
         <v>4.999872999999982</v>
       </c>
       <c r="C128" t="n">
-        <v>49.73955389830618</v>
+        <v>205.1188075716392</v>
       </c>
       <c r="D128" t="n">
-        <v>59.76755153890694</v>
+        <v>103.513430217103</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>136.5724707011179</v>
+        <v>149.0782741608203</v>
       </c>
       <c r="B129" t="n">
         <v>4.999871999999982</v>
       </c>
       <c r="C129" t="n">
-        <v>49.3846953161293</v>
+        <v>200.6079306013321</v>
       </c>
       <c r="D129" t="n">
-        <v>59.57768289877508</v>
+        <v>103.2460227471463</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>136.5723957011178</v>
+        <v>149.0781891608203</v>
       </c>
       <c r="B130" t="n">
         <v>4.999870999999982</v>
       </c>
       <c r="C130" t="n">
-        <v>49.04950931145066</v>
+        <v>200.1271303509279</v>
       </c>
       <c r="D130" t="n">
-        <v>59.38781293336795</v>
+        <v>102.9786353865777</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>136.5723207011179</v>
+        <v>149.0781041608203</v>
       </c>
       <c r="B131" t="n">
         <v>4.999869999999982</v>
       </c>
       <c r="C131" t="n">
-        <v>48.75413497202432</v>
+        <v>198.69948098033</v>
       </c>
       <c r="D131" t="n">
-        <v>59.24093920657437</v>
+        <v>102.7112470139177</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>136.5722457011178</v>
+        <v>149.0780191608203</v>
       </c>
       <c r="B132" t="n">
         <v>4.999868999999982</v>
       </c>
       <c r="C132" t="n">
-        <v>48.64301752671152</v>
+        <v>197.2980158352972</v>
       </c>
       <c r="D132" t="n">
-        <v>59.10176574316374</v>
+        <v>102.4438523942619</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>136.5721707011178</v>
+        <v>149.0779341608203</v>
       </c>
       <c r="B133" t="n">
         <v>4.999867999999982</v>
       </c>
       <c r="C133" t="n">
-        <v>48.5319000813987</v>
+        <v>195.9268188029438</v>
       </c>
       <c r="D133" t="n">
-        <v>58.96259164406145</v>
+        <v>102.1764393901777</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>136.5720957011179</v>
+        <v>149.0778491608203</v>
       </c>
       <c r="B134" t="n">
         <v>4.999866999999981</v>
       </c>
       <c r="C134" t="n">
-        <v>47.95430983977058</v>
+        <v>194.6069928675309</v>
       </c>
       <c r="D134" t="n">
-        <v>58.82342051242938</v>
+        <v>101.9090113733354</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>136.5720207011178</v>
+        <v>149.0777641608202</v>
       </c>
       <c r="B135" t="n">
         <v>4.999865999999981</v>
       </c>
       <c r="C135" t="n">
-        <v>47.84319239445776</v>
+        <v>193.308831617646</v>
       </c>
       <c r="D135" t="n">
-        <v>58.68424377515682</v>
+        <v>101.6416047117223</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>136.5719457011178</v>
+        <v>149.0776791608203</v>
       </c>
       <c r="B136" t="n">
         <v>4.999864999999981</v>
       </c>
       <c r="C136" t="n">
-        <v>47.73207494914496</v>
+        <v>192.0502888694368</v>
       </c>
       <c r="D136" t="n">
-        <v>58.54507068860265</v>
+        <v>101.3741778331806</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>136.5718707011178</v>
+        <v>149.0775941608202</v>
       </c>
       <c r="B137" t="n">
         <v>4.999863999999981</v>
       </c>
       <c r="C137" t="n">
-        <v>47.62095750383217</v>
+        <v>190.8356416057308</v>
       </c>
       <c r="D137" t="n">
-        <v>58.40589519250282</v>
+        <v>101.1067912256457</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>136.5717957011177</v>
+        <v>149.0775091608203</v>
       </c>
       <c r="B138" t="n">
         <v>4.999862999999981</v>
       </c>
       <c r="C138" t="n">
-        <v>47.50984005851934</v>
+        <v>189.7813062897076</v>
       </c>
       <c r="D138" t="n">
-        <v>58.26671840420995</v>
+        <v>100.8393996709766</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>136.5717207011178</v>
+        <v>149.0774241608202</v>
       </c>
       <c r="B139" t="n">
         <v>4.999861999999981</v>
       </c>
       <c r="C139" t="n">
-        <v>47.40516753512773</v>
+        <v>188.9985708170941</v>
       </c>
       <c r="D139" t="n">
-        <v>58.14092100237878</v>
+        <v>100.5720104569826</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>136.5716457011177</v>
+        <v>149.0773391608202</v>
       </c>
       <c r="B140" t="n">
         <v>4.999860999999981</v>
       </c>
       <c r="C140" t="n">
-        <v>47.14627638832227</v>
+        <v>188.4099317050322</v>
       </c>
       <c r="D140" t="n">
-        <v>58.02253858400025</v>
+        <v>100.3046035515238</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>136.5715707011177</v>
+        <v>149.0772541608202</v>
       </c>
       <c r="B141" t="n">
         <v>4.99985999999998</v>
       </c>
       <c r="C141" t="n">
-        <v>46.88738524151685</v>
+        <v>188.0537334130746</v>
       </c>
       <c r="D141" t="n">
-        <v>57.9041630075586</v>
+        <v>100.037215337545</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>136.5714957011178</v>
+        <v>149.0771691608202</v>
       </c>
       <c r="B142" t="n">
         <v>4.99985899999998</v>
       </c>
       <c r="C142" t="n">
-        <v>46.62849409471139</v>
+        <v>187.4751991484395</v>
       </c>
       <c r="D142" t="n">
-        <v>57.78578485885059</v>
+        <v>98.83113495944031</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>136.5714207011177</v>
+        <v>149.0770841608202</v>
       </c>
       <c r="B143" t="n">
         <v>4.99985799999998</v>
       </c>
       <c r="C143" t="n">
-        <v>44.98445910818722</v>
+        <v>186.9357819656176</v>
       </c>
       <c r="D143" t="n">
-        <v>57.66741228361168</v>
+        <v>98.5637488945714</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>136.5713457011177</v>
+        <v>149.0769991608202</v>
       </c>
       <c r="B144" t="n">
         <v>4.99985699999998</v>
       </c>
       <c r="C144" t="n">
-        <v>44.73163303100755</v>
+        <v>186.3963647827956</v>
       </c>
       <c r="D144" t="n">
-        <v>57.54903482341248</v>
+        <v>95.14887330785982</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>136.5712707011178</v>
+        <v>149.0769141608201</v>
       </c>
       <c r="B145" t="n">
         <v>4.99985599999998</v>
       </c>
       <c r="C145" t="n">
-        <v>44.21488011384007</v>
+        <v>185.9172526520052</v>
       </c>
       <c r="D145" t="n">
-        <v>57.43066134208694</v>
+        <v>94.21782290428017</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>136.5711957011177</v>
+        <v>149.0768291608201</v>
       </c>
       <c r="B146" t="n">
         <v>4.99985499999998</v>
       </c>
       <c r="C146" t="n">
-        <v>43.99132206103454</v>
+        <v>185.5960922756426</v>
       </c>
       <c r="D146" t="n">
-        <v>57.33441038315976</v>
+        <v>92.14232861008735</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>136.5711207011177</v>
+        <v>149.0767441608201</v>
       </c>
       <c r="B147" t="n">
         <v>4.99985399999998</v>
       </c>
       <c r="C147" t="n">
-        <v>43.59469718940992</v>
+        <v>185.2926891531419</v>
       </c>
       <c r="D147" t="n">
-        <v>57.24398498421962</v>
+        <v>90.85431098496352</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>136.5710457011176</v>
+        <v>149.0766591608201</v>
       </c>
       <c r="B148" t="n">
         <v>4.999852999999979</v>
       </c>
       <c r="C148" t="n">
-        <v>43.2660850344319</v>
+        <v>184.9892860306412</v>
       </c>
       <c r="D148" t="n">
-        <v>57.15355298557165</v>
+        <v>89.5662953738379</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>136.5709707011176</v>
+        <v>149.0765741608201</v>
       </c>
       <c r="B149" t="n">
         <v>4.999851999999979</v>
       </c>
       <c r="C149" t="n">
-        <v>42.96844360130386</v>
+        <v>184.6858829081406</v>
       </c>
       <c r="D149" t="n">
-        <v>57.11196877550312</v>
+        <v>88.86835282140392</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>136.5708957011177</v>
+        <v>149.0764891608201</v>
       </c>
       <c r="B150" t="n">
         <v>4.999850999999979</v>
       </c>
       <c r="C150" t="n">
-        <v>42.41519526362486</v>
+        <v>184.4083619109487</v>
       </c>
       <c r="D150" t="n">
-        <v>57.02154461422685</v>
+        <v>87.88715943395768</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>136.5708207011176</v>
+        <v>149.07640416082</v>
       </c>
       <c r="B151" t="n">
         <v>4.999849999999979</v>
       </c>
       <c r="C151" t="n">
-        <v>42.11755383049679</v>
+        <v>179.5212747934719</v>
       </c>
       <c r="D151" t="n">
-        <v>56.90367977391822</v>
+        <v>86.59914523597344</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>136.5707457011176</v>
+        <v>149.0763191608201</v>
       </c>
       <c r="B152" t="n">
         <v>4.999848999999979</v>
       </c>
       <c r="C152" t="n">
-        <v>41.81991239736875</v>
+        <v>174.634187675995</v>
       </c>
       <c r="D152" t="n">
-        <v>56.81324765424125</v>
+        <v>85.29792193675263</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>136.5706707011176</v>
+        <v>149.07623416082</v>
       </c>
       <c r="B153" t="n">
         <v>4.999847999999979</v>
       </c>
       <c r="C153" t="n">
-        <v>41.54176410093356</v>
+        <v>169.7471005585184</v>
       </c>
       <c r="D153" t="n">
-        <v>56.72282058442808</v>
+        <v>84.36925269259707</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>136.5705957011176</v>
+        <v>149.0761491608201</v>
       </c>
       <c r="B154" t="n">
         <v>4.999846999999979</v>
       </c>
       <c r="C154" t="n">
-        <v>41.34629403151246</v>
+        <v>164.8600134410416</v>
       </c>
       <c r="D154" t="n">
-        <v>56.63239241636653</v>
+        <v>83.23937465745728</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>136.5705207011176</v>
+        <v>149.07606416082</v>
       </c>
       <c r="B155" t="n">
         <v>4.999845999999978</v>
       </c>
       <c r="C155" t="n">
-        <v>41.15082396209134</v>
+        <v>159.9842186953755</v>
       </c>
       <c r="D155" t="n">
-        <v>56.54196809378229</v>
+        <v>81.85492977390685</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>136.5704457011175</v>
+        <v>149.07597916082</v>
       </c>
       <c r="B156" t="n">
         <v>4.999844999999978</v>
       </c>
       <c r="C156" t="n">
-        <v>40.95535389267025</v>
+        <v>155.1291973224083</v>
       </c>
       <c r="D156" t="n">
-        <v>56.42410325551285</v>
+        <v>80.47050080714658</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>136.5703707011176</v>
+        <v>149.07589416082</v>
       </c>
       <c r="B157" t="n">
         <v>4.999843999999978</v>
       </c>
       <c r="C157" t="n">
-        <v>40.75988382324914</v>
+        <v>150.3704338972188</v>
       </c>
       <c r="D157" t="n">
-        <v>56.33367945656747</v>
+        <v>79.34062331603022</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>136.5702957011176</v>
+        <v>149.07580916082</v>
       </c>
       <c r="B158" t="n">
         <v>4.999842999999978</v>
       </c>
       <c r="C158" t="n">
-        <v>40.56441375382803</v>
+        <v>144.4441740758908</v>
       </c>
       <c r="D158" t="n">
-        <v>56.24325329706392</v>
+        <v>78.21074485513877</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>136.5702207011175</v>
+        <v>149.07572416082</v>
       </c>
       <c r="B159" t="n">
         <v>4.999841999999978</v>
       </c>
       <c r="C159" t="n">
-        <v>40.36894368440694</v>
+        <v>139.7879960614732</v>
       </c>
       <c r="D159" t="n">
-        <v>56.15283120138935</v>
+        <v>77.37183149473287</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>136.5701457011175</v>
+        <v>149.07563916082</v>
       </c>
       <c r="B160" t="n">
         <v>4.999840999999978</v>
       </c>
       <c r="C160" t="n">
-        <v>40.17926285121107</v>
+        <v>135.2861682219618</v>
       </c>
       <c r="D160" t="n">
-        <v>56.06239742754342</v>
+        <v>76.79611397116284</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>136.5700707011176</v>
+        <v>149.0755541608199</v>
       </c>
       <c r="B161" t="n">
         <v>4.999839999999978</v>
       </c>
       <c r="C161" t="n">
-        <v>40.17921985121107</v>
+        <v>130.6299902075442</v>
       </c>
       <c r="D161" t="n">
-        <v>55.97197352209236</v>
+        <v>76.47910661534105</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>136.5699957011175</v>
+        <v>149.0754691608199</v>
       </c>
       <c r="B162" t="n">
         <v>4.999838999999977</v>
       </c>
       <c r="C162" t="n">
-        <v>40.17917685121108</v>
+        <v>125.9738121931266</v>
       </c>
       <c r="D162" t="n">
-        <v>55.88154447368605</v>
+        <v>76.22484736786038</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>136.5699207011175</v>
+        <v>149.0753841608199</v>
       </c>
       <c r="B163" t="n">
         <v>4.999837999999977</v>
       </c>
       <c r="C163" t="n">
-        <v>40.17913385121108</v>
+        <v>121.317634178709</v>
       </c>
       <c r="D163" t="n">
-        <v>55.83994998244894</v>
+        <v>75.97058923485027</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>136.5698457011174</v>
+        <v>149.0752991608199</v>
       </c>
       <c r="B164" t="n">
         <v>4.999836999999977</v>
       </c>
       <c r="C164" t="n">
-        <v>40.17909085121107</v>
+        <v>116.6833552750588</v>
       </c>
       <c r="D164" t="n">
-        <v>55.74952509593398</v>
+        <v>75.71632585465994</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>136.5697707011174</v>
+        <v>149.0752141608199</v>
       </c>
       <c r="B165" t="n">
         <v>4.999835999999977</v>
       </c>
       <c r="C165" t="n">
-        <v>40.17904785121106</v>
+        <v>112.210759314296</v>
       </c>
       <c r="D165" t="n">
-        <v>55.65909778288393</v>
+        <v>74.63816962609877</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>136.5696957011175</v>
+        <v>149.0751291608199</v>
       </c>
       <c r="B166" t="n">
         <v>4.999834999999977</v>
       </c>
       <c r="C166" t="n">
-        <v>40.17900485121108</v>
+        <v>107.8922382168386</v>
       </c>
       <c r="D166" t="n">
-        <v>55.568668373588</v>
+        <v>74.38391186752089</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>136.5696207011175</v>
+        <v>149.0750441608199</v>
       </c>
       <c r="B167" t="n">
         <v>4.999833999999977</v>
       </c>
       <c r="C167" t="n">
-        <v>40.17896185121108</v>
+        <v>103.7874850797526</v>
       </c>
       <c r="D167" t="n">
-        <v>55.48759890690839</v>
+        <v>74.29605102932651</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>136.5695457011174</v>
+        <v>149.0749591608199</v>
       </c>
       <c r="B168" t="n">
         <v>4.999832999999977</v>
       </c>
       <c r="C168" t="n">
-        <v>40.17891885121106</v>
+        <v>100.1711785145291</v>
       </c>
       <c r="D168" t="n">
-        <v>55.41003125594438</v>
+        <v>74.04179776140278</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>136.5694707011175</v>
+        <v>149.0748741608198</v>
       </c>
       <c r="B169" t="n">
         <v>4.999831999999977</v>
       </c>
       <c r="C169" t="n">
-        <v>40.17887585121107</v>
+        <v>91.98499779640682</v>
       </c>
       <c r="D169" t="n">
-        <v>55.38129820969547</v>
+        <v>73.78754396193384</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>136.5693957011174</v>
+        <v>149.0747891608199</v>
       </c>
       <c r="B170" t="n">
         <v>4.999830999999976</v>
       </c>
       <c r="C170" t="n">
-        <v>40.17883285121108</v>
+        <v>88.45943083077248</v>
       </c>
       <c r="D170" t="n">
-        <v>55.30372760302511</v>
+        <v>73.53328392910885</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>136.5693207011174</v>
+        <v>149.0747041608198</v>
       </c>
       <c r="B171" t="n">
         <v>4.999829999999976</v>
       </c>
       <c r="C171" t="n">
-        <v>40.17878985121106</v>
+        <v>85.50916713547137</v>
       </c>
       <c r="D171" t="n">
-        <v>55.22615789468342</v>
+        <v>72.24746765851346</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>136.5692457011174</v>
+        <v>149.0746191608198</v>
       </c>
       <c r="B172" t="n">
         <v>4.999828999999976</v>
       </c>
       <c r="C172" t="n">
-        <v>40.17874685121107</v>
+        <v>82.84130229896957</v>
       </c>
       <c r="D172" t="n">
-        <v>55.14858611541552</v>
+        <v>71.8089120313081</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>136.5691707011174</v>
+        <v>149.0745341608198</v>
       </c>
       <c r="B173" t="n">
         <v>4.999827999999976</v>
       </c>
       <c r="C173" t="n">
-        <v>40.17870385121108</v>
+        <v>80.28785237794237</v>
       </c>
       <c r="D173" t="n">
-        <v>55.0710131891599</v>
+        <v>71.45552099365582</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>136.5690957011174</v>
+        <v>149.0744491608198</v>
       </c>
       <c r="B174" t="n">
         <v>4.999826999999976</v>
       </c>
       <c r="C174" t="n">
-        <v>40.17866085121106</v>
+        <v>78.20748392374431</v>
       </c>
       <c r="D174" t="n">
-        <v>54.9934416455116</v>
+        <v>71.04044896836663</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>136.5690207011174</v>
+        <v>149.0743641608198</v>
       </c>
       <c r="B175" t="n">
         <v>4.999825999999976</v>
       </c>
       <c r="C175" t="n">
-        <v>40.17861785121107</v>
+        <v>75.06138992193081</v>
       </c>
       <c r="D175" t="n">
-        <v>54.91587372012201</v>
+        <v>70.34279201026004</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>136.5689457011174</v>
+        <v>149.0742791608198</v>
       </c>
       <c r="B176" t="n">
         <v>4.999824999999976</v>
       </c>
       <c r="C176" t="n">
-        <v>40.17857485121107</v>
+        <v>72.72965575408254</v>
       </c>
       <c r="D176" t="n">
-        <v>54.85550116329195</v>
+        <v>69.78016370352834</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>136.5688707011174</v>
+        <v>149.0741941608198</v>
       </c>
       <c r="B177" t="n">
         <v>4.999823999999975</v>
       </c>
       <c r="C177" t="n">
-        <v>40.17853185121107</v>
+        <v>70.3947934048448</v>
       </c>
       <c r="D177" t="n">
-        <v>54.79684406119893</v>
+        <v>69.21753422201039</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>136.5687957011174</v>
+        <v>149.0741091608197</v>
       </c>
       <c r="B178" t="n">
         <v>4.999822999999975</v>
       </c>
       <c r="C178" t="n">
-        <v>40.17848885121106</v>
+        <v>68.25537174390021</v>
       </c>
       <c r="D178" t="n">
-        <v>54.74420756592745</v>
+        <v>68.65490576798338</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>136.5687207011173</v>
+        <v>149.0740241608197</v>
       </c>
       <c r="B179" t="n">
         <v>4.999821999999975</v>
       </c>
       <c r="C179" t="n">
-        <v>40.17844585121107</v>
+        <v>66.22653397828222</v>
       </c>
       <c r="D179" t="n">
-        <v>54.6969118090282</v>
+        <v>68.09227846821824</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>136.5686457011173</v>
+        <v>149.0739391608197</v>
       </c>
       <c r="B180" t="n">
         <v>4.999820999999975</v>
       </c>
       <c r="C180" t="n">
-        <v>40.17840285121107</v>
+        <v>64.2582703907765</v>
       </c>
       <c r="D180" t="n">
-        <v>54.6221896574749</v>
+        <v>67.52965001618757</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>136.5685707011173</v>
+        <v>149.0738541608197</v>
       </c>
       <c r="B181" t="n">
         <v>4.999819999999975</v>
       </c>
       <c r="C181" t="n">
-        <v>40.17835985121106</v>
+        <v>62.38737322511319</v>
       </c>
       <c r="D181" t="n">
-        <v>54.57784353913794</v>
+        <v>66.96702221356237</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>136.5684957011173</v>
+        <v>149.0737691608198</v>
       </c>
       <c r="B182" t="n">
         <v>4.999818999999975</v>
       </c>
       <c r="C182" t="n">
-        <v>40.17831685121106</v>
+        <v>60.8423738227874</v>
       </c>
       <c r="D182" t="n">
-        <v>54.54542516671729</v>
+        <v>66.4043953281833</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>136.5684207011173</v>
+        <v>149.0736841608197</v>
       </c>
       <c r="B183" t="n">
         <v>4.999817999999975</v>
       </c>
       <c r="C183" t="n">
-        <v>40.17827385121107</v>
+        <v>59.51760928903828</v>
       </c>
       <c r="D183" t="n">
-        <v>54.51300412545619</v>
+        <v>65.46374800956856</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>136.5683457011173</v>
+        <v>149.0735991608197</v>
       </c>
       <c r="B184" t="n">
         <v>4.999816999999974</v>
       </c>
       <c r="C184" t="n">
-        <v>40.17823085121106</v>
+        <v>58.20043789807517</v>
       </c>
       <c r="D184" t="n">
-        <v>54.48058740676313</v>
+        <v>64.90112126555184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>136.5682707011173</v>
+        <v>149.0735141608197</v>
       </c>
       <c r="B185" t="n">
         <v>4.999815999999974</v>
       </c>
       <c r="C185" t="n">
-        <v>40.17818785121105</v>
+        <v>54.980942429347</v>
       </c>
       <c r="D185" t="n">
-        <v>54.44816847958192</v>
+        <v>64.338489694655</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>136.5681957011172</v>
+        <v>149.0734291608197</v>
       </c>
       <c r="B186" t="n">
         <v>4.999814999999974</v>
       </c>
       <c r="C186" t="n">
-        <v>40.17814485121107</v>
+        <v>53.16061190643558</v>
       </c>
       <c r="D186" t="n">
-        <v>54.41573327183555</v>
+        <v>63.77585804717302</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>136.5681207011173</v>
+        <v>149.0733441608197</v>
       </c>
       <c r="B187" t="n">
         <v>4.999813999999974</v>
       </c>
       <c r="C187" t="n">
-        <v>40.17810185121106</v>
+        <v>51.51155905495236</v>
       </c>
       <c r="D187" t="n">
-        <v>54.38331314227611</v>
+        <v>63.55300229404914</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>136.5680457011172</v>
+        <v>149.0732591608196</v>
       </c>
       <c r="B188" t="n">
         <v>4.999812999999974</v>
       </c>
       <c r="C188" t="n">
-        <v>40.17805885121106</v>
+        <v>49.86250620346911</v>
       </c>
       <c r="D188" t="n">
-        <v>54.36596029514937</v>
+        <v>62.63582748320607</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>136.5679707011172</v>
+        <v>149.0731741608196</v>
       </c>
       <c r="B189" t="n">
         <v>4.999811999999974</v>
       </c>
       <c r="C189" t="n">
-        <v>40.17801585121107</v>
+        <v>48.2278235651931</v>
       </c>
       <c r="D189" t="n">
-        <v>54.33353781980391</v>
+        <v>62.07320287494709</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>136.5678957011173</v>
+        <v>149.0730891608196</v>
       </c>
       <c r="B190" t="n">
         <v>4.999810999999974</v>
       </c>
       <c r="C190" t="n">
-        <v>40.17797285121107</v>
+        <v>48.14454195177772</v>
       </c>
       <c r="D190" t="n">
-        <v>54.30111371861118</v>
+        <v>60.68494123930891</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>136.5678207011172</v>
+        <v>149.0730041608196</v>
       </c>
       <c r="B191" t="n">
         <v>4.999809999999973</v>
       </c>
       <c r="C191" t="n">
-        <v>40.17792985121106</v>
+        <v>48.06594467798116</v>
       </c>
       <c r="D191" t="n">
-        <v>54.2686883602587</v>
+        <v>58.78470992197915</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>136.5677457011172</v>
+        <v>149.0729191608196</v>
       </c>
       <c r="B192" t="n">
         <v>4.999808999999973</v>
       </c>
       <c r="C192" t="n">
-        <v>40.17788685121106</v>
+        <v>48.00278396082472</v>
       </c>
       <c r="D192" t="n">
-        <v>54.23626740677093</v>
+        <v>58.23532581685305</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>136.5676707011172</v>
+        <v>149.0728341608196</v>
       </c>
       <c r="B193" t="n">
         <v>4.999807999999973</v>
       </c>
       <c r="C193" t="n">
-        <v>40.17784385121107</v>
+        <v>47.93962324366834</v>
       </c>
       <c r="D193" t="n">
-        <v>54.20384506998792</v>
+        <v>58.08238913339747</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>136.5675957011172</v>
+        <v>149.0727491608195</v>
       </c>
       <c r="B194" t="n">
         <v>4.999806999999973</v>
       </c>
       <c r="C194" t="n">
-        <v>40.17780085121105</v>
+        <v>47.87646252651192</v>
       </c>
       <c r="D194" t="n">
-        <v>54.17142073309991</v>
+        <v>57.72251066126272</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>136.5675207011172</v>
+        <v>149.0726641608195</v>
       </c>
       <c r="B195" t="n">
         <v>4.999805999999973</v>
       </c>
       <c r="C195" t="n">
-        <v>40.17775785121106</v>
+        <v>47.81330180935552</v>
       </c>
       <c r="D195" t="n">
-        <v>54.13899798510456</v>
+        <v>57.17312929495144</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>136.5674457011171</v>
+        <v>149.0725791608195</v>
       </c>
       <c r="B196" t="n">
         <v>4.999804999999973</v>
       </c>
       <c r="C196" t="n">
-        <v>40.17771485121106</v>
+        <v>47.75014109219912</v>
       </c>
       <c r="D196" t="n">
-        <v>54.1065721844547</v>
+        <v>56.55876614928469</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>136.5673707011171</v>
+        <v>149.0724941608196</v>
       </c>
       <c r="B197" t="n">
         <v>4.999803999999973</v>
       </c>
       <c r="C197" t="n">
-        <v>40.17767185121104</v>
+        <v>47.6869803750427</v>
       </c>
       <c r="D197" t="n">
-        <v>54.07414434464783</v>
+        <v>56.2881670170387</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>136.5672957011172</v>
+        <v>149.0724091608195</v>
       </c>
       <c r="B198" t="n">
         <v>4.999802999999972</v>
       </c>
       <c r="C198" t="n">
-        <v>40.17762885121105</v>
+        <v>47.62381965788629</v>
       </c>
       <c r="D198" t="n">
-        <v>54.04172088783127</v>
+        <v>55.73878161484392</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>136.5672207011171</v>
+        <v>149.0723241608195</v>
       </c>
       <c r="B199" t="n">
         <v>4.999801999999972</v>
       </c>
       <c r="C199" t="n">
-        <v>40.17758585121105</v>
+        <v>47.56065894072989</v>
       </c>
       <c r="D199" t="n">
-        <v>54.01592319796178</v>
+        <v>55.66417419025337</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>136.5671457011171</v>
+        <v>149.0722391608195</v>
       </c>
       <c r="B200" t="n">
         <v>4.999800999999972</v>
       </c>
       <c r="C200" t="n">
-        <v>40.17754285121105</v>
+        <v>47.49749822357348</v>
       </c>
       <c r="D200" t="n">
-        <v>53.99831257973912</v>
+        <v>55.11478930636958</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>136.5670707011172</v>
+        <v>149.0721541608195</v>
       </c>
       <c r="B201" t="n">
         <v>4.999799999999972</v>
       </c>
       <c r="C201" t="n">
-        <v>40.17749985121105</v>
+        <v>47.43433750641707</v>
       </c>
       <c r="D201" t="n">
-        <v>51.23784891850723</v>
+        <v>54.97478093820658</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>136.5669957011171</v>
+        <v>149.0720691608195</v>
       </c>
       <c r="B202" t="n">
         <v>4.999798999999972</v>
       </c>
       <c r="C202" t="n">
-        <v>40.17745685121105</v>
+        <v>47.37117678926067</v>
       </c>
       <c r="D202" t="n">
-        <v>51.22023790185122</v>
+        <v>54.76019956810661</v>
       </c>
     </row>
   </sheetData>
